--- a/biology/Histoire de la zoologie et de la botanique/Benjamin_Shreve/Benjamin_Shreve.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Benjamin_Shreve/Benjamin_Shreve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Shreve, né le 7 mars 1908 et mort le 16 juillet 1985, est un herpétologiste américain.
-Il a travaillé avec Thomas Barbour (1884-1946) sur la faune herpétologique antillaise[1].
+Il a travaillé avec Thomas Barbour (1884-1946) sur la faune herpétologique antillaise.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dipsadoboa shrevei Loveridge 1932
 Anolis shrevei Cochran 1939
@@ -547,7 +561,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Atelopus chiriquiensis
